--- a/saidai.xlsx
+++ b/saidai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\共有ドライブ\01_授業コンテンツ\python\python101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16EE7C7-B242-456D-953E-BB1EBDFEF268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E1DA68-2964-4C52-B10D-5F27D9EEF4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="-4680" windowWidth="21930" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24510" yWindow="-4620" windowWidth="23430" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t># 最大をもとめる</t>
   </si>
@@ -372,12 +372,29 @@
     <t>saisho</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>　　　　年　　　　組　名前</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2022.06.03</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,10 +469,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,7 +496,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -620,57 +650,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,456 +1086,473 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="22.875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="19">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1">
+      <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="9.75" customHeight="1"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="19">
-        <f>C1+1</f>
+      <c r="E3" s="10">
+        <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="19">
-        <f>E1+1</f>
+      <c r="G3" s="10">
+        <f>E3+1</f>
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19">
-        <f>G1+1</f>
+      <c r="I3" s="10">
+        <f>G3+1</f>
         <v>4</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="19">
-        <f>I1+1</f>
+      <c r="K3" s="10">
+        <f>I3+1</f>
         <v>5</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L4" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A3" s="6">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A4" s="6">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D8" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E8" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F8" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A7" s="6">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A8" s="6">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C10" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A9" s="13">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="19">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="19">
-        <f>C11+1</f>
+      <c r="E13" s="10">
+        <f>C13+1</f>
         <v>2</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="19">
-        <f>E11+1</f>
+      <c r="G13" s="10">
+        <f>E13+1</f>
         <v>3</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="19">
-        <f>G11+1</f>
+      <c r="I13" s="10">
+        <f>G13+1</f>
         <v>4</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="19">
-        <f>I11+1</f>
+      <c r="K13" s="10">
+        <f>I13+1</f>
         <v>5</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L13" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L14" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A13" s="6">
+    <row r="15" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A15" s="20">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A14" s="6">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A15" s="6">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A16" s="6">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A17" s="6">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A18" s="6">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A19" s="13">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>